--- a/template_1.xlsx
+++ b/template_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\kursach_telegram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6FC7A4-E40F-4BF9-BB6C-88A40C93ED30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF563D7-D972-44BE-9BC7-62643A3B9614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="-14250" windowWidth="11115" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -302,19 +302,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -370,21 +357,6 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -430,112 +402,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -820,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,18 +792,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="28"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -865,8 +826,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -947,32 +908,32 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -982,32 +943,32 @@
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:27" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -1016,99 +977,99 @@
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16" t="e">
+      <c r="C5" s="14" t="e">
         <f t="shared" ref="C5:W5" si="0">ROUNDUP(C3*C4*0.92,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <f>ROUNDUP(D3*D4*0.83,0)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <f>ROUNDUP(F3*F4*0.83,0)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <f>ROUNDUP(H3*H4*0.83,0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <f>ROUNDUP(J3*J4*0.83,0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="14">
         <f>ROUNDUP(L3*L4*0.83,0)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="14">
         <f>ROUNDUP(N3*N4*0.83,0)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="14">
         <f>ROUNDUP(P3*P4*0.83,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="14">
         <f>ROUNDUP(R3*R4*0.83,0)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="14">
         <f>ROUNDUP(T3*T4*0.83,0)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="14">
         <f>ROUNDUP(V3*V4*0.83,0)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="14">
         <f>ROUNDUP(X3*X4*0.83,0)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Y5" s="14">
         <f>ROUNDUP(Y3*Y4*0.92,0)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="Z5" s="14">
         <f>ROUNDUP(Z3*Z4*0.83,0)</f>
         <v>0</v>
       </c>
@@ -1120,32 +1081,32 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:27" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
@@ -1154,32 +1115,32 @@
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="26">
         <v>3.88</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -1188,133 +1149,133 @@
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="26">
         <v>4.25</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="36"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="17" t="e">
+      <c r="C9" s="11" t="e">
         <f>ROUNDUP(C6*C5,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="11">
         <f t="shared" ref="D9:Z9" si="1">ROUNDUP(D6*D5,0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="Z9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1323,102 +1284,102 @@
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="21" t="e">
+      <c r="C10" s="11" t="e">
         <f>ROUNDUP((C9*$C7*0.11)/60,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="11">
         <f>ROUNDUP((D9*$C7*0.11)/60,2)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="11">
         <f t="shared" ref="E10:Z10" si="2">ROUNDUP((E9*$C7*0.11)/60,2)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U10" s="21">
+      <c r="U10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W10" s="21">
+      <c r="W10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X10" s="21">
+      <c r="X10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="21">
+      <c r="Y10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="13">
+      <c r="Z10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1427,79 +1388,79 @@
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0</v>
-      </c>
-      <c r="K11" s="17">
-        <v>0</v>
-      </c>
-      <c r="L11" s="17">
-        <v>0</v>
-      </c>
-      <c r="M11" s="17">
-        <v>0</v>
-      </c>
-      <c r="N11" s="17">
-        <v>0</v>
-      </c>
-      <c r="O11" s="17">
-        <v>0</v>
-      </c>
-      <c r="P11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>0</v>
-      </c>
-      <c r="R11" s="17">
-        <v>0</v>
-      </c>
-      <c r="S11" s="17">
-        <v>0</v>
-      </c>
-      <c r="T11" s="17">
-        <v>0</v>
-      </c>
-      <c r="U11" s="17">
-        <v>0</v>
-      </c>
-      <c r="V11" s="17">
-        <v>0</v>
-      </c>
-      <c r="W11" s="17">
-        <v>0</v>
-      </c>
-      <c r="X11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="13">
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1507,719 +1468,719 @@
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="15">
         <f>ROUNDUP(C11/31,0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <f t="shared" ref="D12:Z12" si="3">ROUNDUP(D11/31,0)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="19">
+      <c r="Z12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="18" t="e">
+      <c r="C13" s="15" t="e">
         <f t="shared" ref="C13:Z13" si="4">ROUNDUP(C9/0.8,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X13" s="18">
+      <c r="X13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="Y13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="20" t="e">
+      <c r="C14" s="15" t="e">
         <f>ROUNDUP((C13*$C$8*0.11)/60,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <f>ROUNDUP((D13*$C$8*0.11)/60,2)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="15">
         <f t="shared" ref="E14:Z14" si="5">ROUNDUP((E13*$C$8*0.11)/60,2)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X14" s="20">
+      <c r="X14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="20">
+      <c r="Y14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="19">
+      <c r="Z14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="18">
-        <v>0</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18">
-        <v>0</v>
-      </c>
-      <c r="K15" s="18">
-        <v>0</v>
-      </c>
-      <c r="L15" s="18">
-        <v>0</v>
-      </c>
-      <c r="M15" s="18">
-        <v>0</v>
-      </c>
-      <c r="N15" s="18">
-        <v>0</v>
-      </c>
-      <c r="O15" s="18">
-        <v>0</v>
-      </c>
-      <c r="P15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>0</v>
-      </c>
-      <c r="R15" s="18">
-        <v>0</v>
-      </c>
-      <c r="S15" s="18">
-        <v>0</v>
-      </c>
-      <c r="T15" s="18">
-        <v>0</v>
-      </c>
-      <c r="U15" s="18">
-        <v>0</v>
-      </c>
-      <c r="V15" s="18">
-        <v>0</v>
-      </c>
-      <c r="W15" s="18">
-        <v>0</v>
-      </c>
-      <c r="X15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="19">
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>0</v>
+      </c>
+      <c r="R15" s="15">
+        <v>0</v>
+      </c>
+      <c r="S15" s="15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15">
+        <v>0</v>
+      </c>
+      <c r="W15" s="15">
+        <v>0</v>
+      </c>
+      <c r="X15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="15">
         <f>ROUNDUP(C15/31,0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <f t="shared" ref="D16:Z16" si="6">ROUNDUP(D15/31,0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W16" s="18">
+      <c r="W16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X16" s="18">
+      <c r="X16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="Y16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="19">
+      <c r="Z16" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="18" t="e">
+      <c r="B17" s="17"/>
+      <c r="C17" s="15" t="e">
         <f>C5*0.005</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="15">
         <f>ROUNDUP(E5*0.005,0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="15">
         <f t="shared" ref="G17:Y17" si="7">ROUNDUP(G5*0.005,0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="N17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R17" s="18" t="s">
+      <c r="R17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T17" s="18" t="s">
+      <c r="T17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="U17" s="18">
+      <c r="U17" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V17" s="18" t="s">
+      <c r="V17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="W17" s="18">
+      <c r="W17" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X17" s="18" t="s">
+      <c r="X17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Y17" s="18">
+      <c r="Y17" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="19" t="s">
+      <c r="Z17" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="29">
+      <c r="B18" s="17"/>
+      <c r="C18" s="25">
         <f>D16+D12</f>
         <v>0</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25">
         <f t="shared" ref="E18" si="8">E16+E17+E12+F16+F12</f>
         <v>0</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25">
         <f t="shared" ref="G18" si="9">G16+G17+G12+H16+H12</f>
         <v>0</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="29">
+      <c r="H18" s="25"/>
+      <c r="I18" s="25">
         <f t="shared" ref="I18" si="10">I16+I17+I12+J16+J12</f>
         <v>0</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="29">
+      <c r="J18" s="25"/>
+      <c r="K18" s="25">
         <f t="shared" ref="K18" si="11">K16+K17+K12+L16+L12</f>
         <v>0</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="29">
+      <c r="L18" s="25"/>
+      <c r="M18" s="25">
         <f t="shared" ref="M18" si="12">M16+M17+M12+N16+N12</f>
         <v>0</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="29">
+      <c r="N18" s="25"/>
+      <c r="O18" s="25">
         <f t="shared" ref="O18" si="13">O16+O17+O12+P16+P12</f>
         <v>0</v>
       </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="29">
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25">
         <f t="shared" ref="Q18" si="14">Q16+Q17+Q12+R16+R12</f>
         <v>0</v>
       </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="29">
+      <c r="R18" s="25"/>
+      <c r="S18" s="25">
         <f t="shared" ref="S18" si="15">S16+S17+S12+T16+T12</f>
         <v>0</v>
       </c>
-      <c r="T18" s="30"/>
-      <c r="U18" s="29">
+      <c r="T18" s="25"/>
+      <c r="U18" s="25">
         <f t="shared" ref="U18" si="16">U16+U17+U12+V16+V12</f>
         <v>0</v>
       </c>
-      <c r="V18" s="30"/>
-      <c r="W18" s="29">
+      <c r="V18" s="25"/>
+      <c r="W18" s="25">
         <f t="shared" ref="W18" si="17">W16+W17+W12+X16+X12</f>
         <v>0</v>
       </c>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="29">
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25">
         <f t="shared" ref="Y18" si="18">Y16+Y17+Y12+Z16+Z12</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="30"/>
+      <c r="Z18" s="25"/>
     </row>
     <row r="19" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="29">
+      <c r="B19" s="17"/>
+      <c r="C19" s="25">
         <f>ROUNDUP((C18+D18)*1.3,0)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25">
         <f t="shared" ref="E19" si="19">ROUNDUP((E18+F18)*1.3,0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25">
         <f t="shared" ref="G19" si="20">ROUNDUP((G18+H18)*1.3,0)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="29">
+      <c r="H19" s="25"/>
+      <c r="I19" s="25">
         <f t="shared" ref="I19" si="21">ROUNDUP((I18+J18)*1.3,0)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="29">
+      <c r="J19" s="25"/>
+      <c r="K19" s="25">
         <f t="shared" ref="K19" si="22">ROUNDUP((K18+L18)*1.3,0)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="29">
+      <c r="L19" s="25"/>
+      <c r="M19" s="25">
         <f t="shared" ref="M19" si="23">ROUNDUP((M18+N18)*1.3,0)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="29">
+      <c r="N19" s="25"/>
+      <c r="O19" s="25">
         <f t="shared" ref="O19" si="24">ROUNDUP((O18+P18)*1.3,0)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="29">
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25">
         <f t="shared" ref="Q19" si="25">ROUNDUP((Q18+R18)*1.3,0)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="30"/>
-      <c r="S19" s="29">
+      <c r="R19" s="25"/>
+      <c r="S19" s="25">
         <f t="shared" ref="S19" si="26">ROUNDUP((S18+T18)*1.3,0)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="30"/>
-      <c r="U19" s="29">
+      <c r="T19" s="25"/>
+      <c r="U19" s="25">
         <f t="shared" ref="U19" si="27">ROUNDUP((U18+V18)*1.3,0)</f>
         <v>0</v>
       </c>
-      <c r="V19" s="30"/>
-      <c r="W19" s="29">
+      <c r="V19" s="25"/>
+      <c r="W19" s="25">
         <f t="shared" ref="W19" si="28">ROUNDUP((W18+X18)*1.3,0)</f>
         <v>0</v>
       </c>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="29">
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25">
         <f>ROUNDUP((Y18+Z18)*1.3,0)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="30"/>
+      <c r="Z19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="30">
